--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/03- variation order for cable tray.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/03- variation order for cable tray.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD146F11-70EE-4D79-9FB7-B10DE9CCAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050A6A03-FE9E-4647-91A4-BC388D43B0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$16:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -396,6 +396,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -408,7 +409,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -425,6 +425,177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2031365</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C63DA3-A394-48A5-B840-7C1F06BE39B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2317115" y="0"/>
+          <a:ext cx="2467610" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>166953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFC6098-7218-47B3-B828-A9CCB0A44EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="10618470"/>
+          <a:ext cx="552450" cy="445083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C1B3CA-0436-9B5F-298E-FF4FD80D499E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="10896600"/>
+          <a:ext cx="6696075" cy="6591300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K48"/>
+  <dimension ref="A7:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,131 +909,195 @@
     <row r="9" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+    <row r="13" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="I16" s="9">
+      <c r="B14" s="35"/>
+      <c r="I14" s="9">
         <v>45553</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>1</v>
       </c>
+      <c r="B24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="32">
+        <v>580</v>
+      </c>
+      <c r="D25" s="32">
+        <v>180</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25:E30" si="0">SUM(C25+D25)*28%</f>
+        <v>212.8</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" ref="F25:F30" si="1">E25+C25+D25</f>
+        <v>972.8</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="13">
+        <v>132</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" ref="I25:I30" si="2">H25*F25</f>
+        <v>128409.59999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C26" s="32">
+        <v>580</v>
+      </c>
+      <c r="D26" s="32">
+        <v>180</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="0"/>
+        <v>212.8</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>972.8</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="2"/>
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="32">
         <v>580</v>
@@ -871,30 +1106,30 @@
         <v>180</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" ref="E27:E32" si="0">SUM(C27+D27)*28%</f>
+        <f t="shared" si="0"/>
         <v>212.8</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" ref="F27:F32" si="1">E27+C27+D27</f>
+        <f t="shared" si="1"/>
         <v>972.8</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="13">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" ref="I27:I32" si="2">H27*F27</f>
-        <v>128409.59999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>58368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="32">
         <v>580</v>
@@ -914,19 +1149,19 @@
         <v>16</v>
       </c>
       <c r="H28" s="13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="2"/>
-        <v>43776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="32">
         <v>580</v>
@@ -946,194 +1181,155 @@
         <v>16</v>
       </c>
       <c r="H29" s="13">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="2"/>
-        <v>58368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>28</v>
+        <v>24320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="30">
+        <v>2</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30" s="32">
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="D30" s="32">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>212.8</v>
+        <v>263.20000000000005</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="1"/>
-        <v>972.8</v>
+        <v>1203.2</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="13">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I30" s="14">
         <f t="shared" si="2"/>
-        <v>58368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>29</v>
+        <v>18048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30">
+        <v>3</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C31" s="32">
-        <v>580</v>
+        <v>75000</v>
       </c>
       <c r="D31" s="32">
-        <v>180</v>
+        <v>15000</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="0"/>
-        <v>212.8</v>
+        <f t="shared" ref="E31" si="3">SUM(C31+D31)*28%</f>
+        <v>25200.000000000004</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="1"/>
-        <v>972.8</v>
+        <f t="shared" ref="F31" si="4">E31+C31+D31</f>
+        <v>115200</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H31" s="13">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="2"/>
-        <v>24320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="30">
-        <v>2</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="32">
-        <v>740</v>
-      </c>
-      <c r="D32" s="32">
-        <v>200</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="0"/>
-        <v>263.20000000000005</v>
-      </c>
-      <c r="F32" s="15">
-        <f t="shared" si="1"/>
-        <v>1203.2</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="13">
-        <v>15</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="2"/>
-        <v>18048</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
-        <v>3</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="32">
-        <v>75000</v>
-      </c>
-      <c r="D33" s="32">
-        <v>15000</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" ref="E33" si="3">SUM(C33+D33)*28%</f>
-        <v>25200.000000000004</v>
-      </c>
-      <c r="F33" s="15">
-        <f t="shared" ref="F33" si="4">E33+C33+D33</f>
+        <f t="shared" ref="I31" si="5">H31*F31</f>
         <v>115200</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="13">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" ref="I33" si="5">H33*F33</f>
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+    </row>
+    <row r="32" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="33">
-        <f>SUM(I27:I33)</f>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="33">
+        <f>SUM(I25:I31)</f>
         <v>446489.59999999998</v>
       </c>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>14</v>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="K41" s="38"/>
-    </row>
-    <row r="42" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
+    <row r="41" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="19"/>
+      <c r="A43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -1141,52 +1337,28 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="K45" s="17"/>
+      <c r="K43" s="17"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="8"/>
+      <c r="K46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A22:I22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/03- variation order for cable tray.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/03- variation order for cable tray.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050A6A03-FE9E-4647-91A4-BC388D43B0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F4DACD-AD60-4516-BFD1-63180AADB4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$84</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>S. #</t>
   </si>
@@ -119,7 +119,13 @@
     <t xml:space="preserve">Hangers and supports with ralated fittings such as elbow, tee including fabricarion and weldling work. </t>
   </si>
   <si>
-    <t>Variation order for Cable tray</t>
+    <t>Supply and installation of 4 way tee.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised variation order for 18 SWG Cable tray </t>
   </si>
 </sst>
 </file>
@@ -494,13 +500,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>166953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -554,22 +560,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>172284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C1B3CA-0436-9B5F-298E-FF4FD80D499E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7868EC2-8BB1-B694-3981-1D444989028D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,8 +591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="10896600"/>
-          <a:ext cx="6696075" cy="6591300"/>
+          <a:off x="228600" y="10848975"/>
+          <a:ext cx="6343650" cy="5973009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K46"/>
+  <dimension ref="A7:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,10 +922,10 @@
       </c>
       <c r="B14" s="35"/>
       <c r="I14" s="9">
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
     </row>
@@ -929,11 +935,11 @@
       </c>
       <c r="B16" s="26"/>
     </row>
-    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -946,7 +952,7 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -957,7 +963,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>19</v>
       </c>
@@ -970,9 +976,9 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -983,8 +989,8 @@
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>1</v>
       </c>
@@ -1028,7 +1034,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>25</v>
       </c>
@@ -1036,18 +1042,18 @@
         <v>20</v>
       </c>
       <c r="C25" s="32">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D25" s="32">
         <v>180</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" ref="E25:E30" si="0">SUM(C25+D25)*28%</f>
-        <v>212.8</v>
+        <f t="shared" ref="E25:E31" si="0">SUM(C25+D25)*28%</f>
+        <v>228.20000000000002</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" ref="F25:F30" si="1">E25+C25+D25</f>
-        <v>972.8</v>
+        <f t="shared" ref="F25:F31" si="1">E25+C25+D25</f>
+        <v>1043.2</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>16</v>
@@ -1056,11 +1062,11 @@
         <v>132</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" ref="I25:I30" si="2">H25*F25</f>
-        <v>128409.59999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I25:I31" si="2">H25*F25</f>
+        <v>137702.39999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>26</v>
       </c>
@@ -1068,18 +1074,18 @@
         <v>21</v>
       </c>
       <c r="C26" s="32">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D26" s="32">
         <v>180</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>212.8</v>
+        <v>228.20000000000002</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="1"/>
-        <v>972.8</v>
+        <v>1043.2</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>16</v>
@@ -1089,10 +1095,10 @@
       </c>
       <c r="I26" s="14">
         <f t="shared" si="2"/>
-        <v>43776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>27</v>
       </c>
@@ -1100,18 +1106,18 @@
         <v>22</v>
       </c>
       <c r="C27" s="32">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D27" s="32">
         <v>180</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>212.8</v>
+        <v>228.20000000000002</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
-        <v>972.8</v>
+        <v>1043.2</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>16</v>
@@ -1121,10 +1127,10 @@
       </c>
       <c r="I27" s="14">
         <f t="shared" si="2"/>
-        <v>58368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>28</v>
       </c>
@@ -1132,18 +1138,18 @@
         <v>23</v>
       </c>
       <c r="C28" s="32">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D28" s="32">
         <v>180</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>212.8</v>
+        <v>228.20000000000002</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
-        <v>972.8</v>
+        <v>1043.2</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>16</v>
@@ -1153,10 +1159,10 @@
       </c>
       <c r="I28" s="14">
         <f t="shared" si="2"/>
-        <v>58368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>29</v>
       </c>
@@ -1164,18 +1170,18 @@
         <v>24</v>
       </c>
       <c r="C29" s="32">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D29" s="32">
         <v>180</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
-        <v>212.8</v>
+        <v>228.20000000000002</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="1"/>
-        <v>972.8</v>
+        <v>1043.2</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>16</v>
@@ -1185,10 +1191,10 @@
       </c>
       <c r="I29" s="14">
         <f t="shared" si="2"/>
-        <v>24320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+        <v>26080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>2</v>
       </c>
@@ -1196,18 +1202,18 @@
         <v>30</v>
       </c>
       <c r="C30" s="32">
-        <v>740</v>
+        <v>870</v>
       </c>
       <c r="D30" s="32">
         <v>200</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>263.20000000000005</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="1"/>
-        <v>1203.2</v>
+        <v>1369.6</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>16</v>
@@ -1217,105 +1223,126 @@
       </c>
       <c r="I30" s="14">
         <f t="shared" si="2"/>
-        <v>18048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>3</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="32">
-        <v>75000</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="32">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" ref="E31" si="3">SUM(C31+D31)*28%</f>
-        <v>25200.000000000004</v>
+        <f t="shared" si="0"/>
+        <v>1540.0000000000002</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" ref="F31" si="4">E31+C31+D31</f>
-        <v>115200</v>
+        <f t="shared" si="1"/>
+        <v>7040</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" ref="I31" si="5">H31*F31</f>
+        <f t="shared" si="2"/>
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30">
+        <v>4</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="32">
+        <v>75000</v>
+      </c>
+      <c r="D32" s="32">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" ref="E32" si="3">SUM(C32+D32)*28%</f>
+        <v>25200.000000000004</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" ref="F32" si="4">E32+C32+D32</f>
         <v>115200</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="G32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" ref="I32" si="5">H32*F32</f>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="33">
-        <f>SUM(I25:I31)</f>
-        <v>446489.59999999998</v>
-      </c>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="33">
+        <f>SUM(I25:I32)</f>
+        <v>478694.40000000002</v>
+      </c>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="K39" s="34"/>
-    </row>
-    <row r="40" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -1323,13 +1350,10 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="23"/>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -1339,21 +1363,35 @@
       <c r="I43" s="21"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="1"/>
+    <row r="44" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="21"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="8"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
     <mergeCell ref="A20:I20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>

--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/03- variation order for cable tray.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/03- variation order for cable tray.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F4DACD-AD60-4516-BFD1-63180AADB4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B01471-5116-4A13-938D-15FAB7275997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>S. #</t>
   </si>
@@ -119,13 +119,7 @@
     <t xml:space="preserve">Hangers and supports with ralated fittings such as elbow, tee including fabricarion and weldling work. </t>
   </si>
   <si>
-    <t>Supply and installation of 4 way tee.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revised variation order for 18 SWG Cable tray </t>
+    <t>Variation order for Cable tray</t>
   </si>
 </sst>
 </file>
@@ -437,23 +431,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2031365</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C63DA3-A394-48A5-B840-7C1F06BE39B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792533FC-2DF2-4127-B482-5DCBEAE1DBCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -476,8 +470,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2317115" y="0"/>
-          <a:ext cx="2467610" cy="1057275"/>
+          <a:off x="142875" y="10602595"/>
+          <a:ext cx="552450" cy="445083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -498,23 +492,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2107565</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>166953</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFC6098-7218-47B3-B828-A9CCB0A44EDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F49CA7-99EC-4E67-A41A-D4093B3F605A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,8 +531,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="10618470"/>
-          <a:ext cx="552450" cy="445083"/>
+          <a:off x="2393315" y="28575"/>
+          <a:ext cx="2384425" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,22 +554,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>168275</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>172284</xdr:rowOff>
+      <xdr:colOff>796925</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7868EC2-8BB1-B694-3981-1D444989028D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B791FD-E45B-4BCA-44E2-17F09E0FD9A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -591,8 +585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="10848975"/>
-          <a:ext cx="6343650" cy="5973009"/>
+          <a:off x="168275" y="11017250"/>
+          <a:ext cx="6788150" cy="6937375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K47"/>
+  <dimension ref="A7:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,10 +916,10 @@
       </c>
       <c r="B14" s="35"/>
       <c r="I14" s="9">
-        <v>45560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
     </row>
@@ -935,11 +929,11 @@
       </c>
       <c r="B16" s="26"/>
     </row>
-    <row r="17" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -952,7 +946,7 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -963,7 +957,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>19</v>
       </c>
@@ -976,9 +970,9 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -989,8 +983,8 @@
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>1</v>
       </c>
@@ -1034,7 +1028,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>25</v>
       </c>
@@ -1042,18 +1036,18 @@
         <v>20</v>
       </c>
       <c r="C25" s="32">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="D25" s="32">
         <v>180</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" ref="E25:E31" si="0">SUM(C25+D25)*28%</f>
-        <v>228.20000000000002</v>
+        <f t="shared" ref="E25:E30" si="0">SUM(C25+D25)*28%</f>
+        <v>212.8</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" ref="F25:F31" si="1">E25+C25+D25</f>
-        <v>1043.2</v>
+        <f t="shared" ref="F25:F30" si="1">E25+C25+D25</f>
+        <v>972.8</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>16</v>
@@ -1062,11 +1056,11 @@
         <v>132</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" ref="I25:I31" si="2">H25*F25</f>
-        <v>137702.39999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I25:I30" si="2">H25*F25</f>
+        <v>128409.59999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>26</v>
       </c>
@@ -1074,18 +1068,18 @@
         <v>21</v>
       </c>
       <c r="C26" s="32">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="D26" s="32">
         <v>180</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>228.20000000000002</v>
+        <v>212.8</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="1"/>
-        <v>1043.2</v>
+        <v>972.8</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>16</v>
@@ -1095,10 +1089,10 @@
       </c>
       <c r="I26" s="14">
         <f t="shared" si="2"/>
-        <v>46944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>27</v>
       </c>
@@ -1106,18 +1100,18 @@
         <v>22</v>
       </c>
       <c r="C27" s="32">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="D27" s="32">
         <v>180</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>228.20000000000002</v>
+        <v>212.8</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
-        <v>1043.2</v>
+        <v>972.8</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>16</v>
@@ -1127,10 +1121,10 @@
       </c>
       <c r="I27" s="14">
         <f t="shared" si="2"/>
-        <v>62592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>28</v>
       </c>
@@ -1138,18 +1132,18 @@
         <v>23</v>
       </c>
       <c r="C28" s="32">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="D28" s="32">
         <v>180</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>228.20000000000002</v>
+        <v>212.8</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
-        <v>1043.2</v>
+        <v>972.8</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>16</v>
@@ -1159,10 +1153,10 @@
       </c>
       <c r="I28" s="14">
         <f t="shared" si="2"/>
-        <v>62592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>29</v>
       </c>
@@ -1170,18 +1164,18 @@
         <v>24</v>
       </c>
       <c r="C29" s="32">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="D29" s="32">
         <v>180</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
-        <v>228.20000000000002</v>
+        <v>212.8</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="1"/>
-        <v>1043.2</v>
+        <v>972.8</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>16</v>
@@ -1191,10 +1185,10 @@
       </c>
       <c r="I29" s="14">
         <f t="shared" si="2"/>
-        <v>26080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+        <v>24320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>2</v>
       </c>
@@ -1202,18 +1196,18 @@
         <v>30</v>
       </c>
       <c r="C30" s="32">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="D30" s="32">
         <v>200</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>299.60000000000002</v>
+        <v>263.20000000000005</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="1"/>
-        <v>1369.6</v>
+        <v>1203.2</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>16</v>
@@ -1223,126 +1217,105 @@
       </c>
       <c r="I30" s="14">
         <f t="shared" si="2"/>
-        <v>20544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+        <v>18048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>3</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="32">
-        <v>5000</v>
+        <v>75000</v>
       </c>
       <c r="D31" s="32">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="0"/>
-        <v>1540.0000000000002</v>
+        <f t="shared" ref="E31" si="3">SUM(C31+D31)*28%</f>
+        <v>25200.000000000004</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="1"/>
-        <v>7040</v>
+        <f t="shared" ref="F31" si="4">E31+C31+D31</f>
+        <v>115200</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="2"/>
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30">
-        <v>4</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="32">
-        <v>75000</v>
-      </c>
-      <c r="D32" s="32">
-        <v>15000</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" ref="E32" si="3">SUM(C32+D32)*28%</f>
-        <v>25200.000000000004</v>
-      </c>
-      <c r="F32" s="15">
-        <f t="shared" ref="F32" si="4">E32+C32+D32</f>
+        <f t="shared" ref="I31" si="5">H31*F31</f>
         <v>115200</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="13">
-        <v>1</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" ref="I32" si="5">H32*F32</f>
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+    </row>
+    <row r="32" spans="1:11" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="33">
-        <f>SUM(I25:I32)</f>
-        <v>478694.40000000002</v>
-      </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="33">
+        <f>SUM(I25:I31)</f>
+        <v>446489.59999999998</v>
+      </c>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>14</v>
-      </c>
+    <row r="38" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -1350,10 +1323,13 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="K42" s="17"/>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -1363,35 +1339,21 @@
       <c r="I43" s="21"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
-      <c r="K44" s="17"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="8"/>
+      <c r="K46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A20:I20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
